--- a/Texts/Город Сокровищ/Все персонажи/Джамплафф.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Джамплафф.xlsx
@@ -556,7 +556,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
